--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briandavison/Dropbox/Modules/SOC09109/2017-18/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F036607A-1DE3-479F-8980-84102E495D86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Week</t>
   </si>
@@ -35,36 +42,39 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Project manager</t>
-  </si>
-  <si>
-    <t>Team member 1</t>
-  </si>
-  <si>
-    <t>Team member 2</t>
-  </si>
-  <si>
-    <t>Team member 3</t>
-  </si>
-  <si>
-    <t>Team member 4</t>
-  </si>
-  <si>
-    <t>Team member 5</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Contribution:</t>
+  </si>
+  <si>
+    <t>Zyrynyl Melendres</t>
+  </si>
+  <si>
+    <t>William Smallwood</t>
+  </si>
+  <si>
+    <t>Euan Sutherland</t>
+  </si>
+  <si>
+    <t>Niall Swan</t>
+  </si>
+  <si>
+    <t>Patryk 	Augusewicz</t>
+  </si>
+  <si>
+    <t>Thomas Heaton</t>
+  </si>
+  <si>
+    <t>Jan 20-Jan 27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -130,6 +140,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -152,7 +165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -520,21 +539,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.796875" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,55 +566,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(C2:H2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -605,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -620,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>5</v>
       </c>
@@ -635,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -650,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -665,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -680,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -695,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>10</v>
       </c>
@@ -710,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>11</v>
       </c>
@@ -725,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -740,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>13</v>
       </c>
@@ -755,20 +782,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:J15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
@@ -776,19 +803,19 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F036607A-1DE3-479F-8980-84102E495D86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98E2D8-E289-4480-91F1-FE8417AB3844}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Week</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Jan 20-Jan 27</t>
+  </si>
+  <si>
+    <t>Jan 27-Feb3rd</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -621,15 +624,30 @@
       <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.1</v>
+      </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J13" si="0">SUM(C3:H3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -791,31 +809,31 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:J15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.19</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B98E2D8-E289-4480-91F1-FE8417AB3844}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F8A05-AFB4-42C9-84EA-BC1717C713C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Week</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Jan 27-Feb3rd</t>
+  </si>
+  <si>
+    <t>Feb3rd-Feb10th</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -654,15 +657,30 @@
       <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.15</v>
+      </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -809,31 +827,31 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.245</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:J15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.16999999999999998</v>
+        <v>0.16333333333333333</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.16999999999999998</v>
+        <v>0.14666666666666664</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.14500000000000002</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.14500000000000002</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
